--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>935757.5692846493</v>
+        <v>970251.2303133977</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16659530.99074006</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083135</v>
+        <v>606553.2040797166</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6775948.274463166</v>
+        <v>7297729.546941079</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>411.5277481491665</v>
+        <v>235.8799504161192</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -829,10 +831,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>3.139541480022511</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>122.9742767430572</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>272.4331389079488</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>73.37049486931492</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1060,7 +1062,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1069,10 +1071,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>58.66188293263057</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>173.7040795765152</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>168.1589972036696</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>212.291195121235</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1300,16 +1302,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2.008513159455165</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>39.57637241135509</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>21.87520451048285</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1388,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>9.180779608841744</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1534,16 +1536,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>64.90507698037648</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>7.264602967362581</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1604,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>288.1982229892517</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1625,7 +1627,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>29.92029206558524</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1664,16 +1666,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1819,10 +1821,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>46.2253027104011</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>279.808058998282</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1831,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2008,16 +2010,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117669</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>90.30617524481251</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>67.4289457920856</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2090,7 +2092,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2251,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170566</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2479,22 +2481,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>61.2328428747578</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>14.14416275345333</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,7 +2535,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2728,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>83.49545568307911</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2779,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3010,7 +3012,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>61.08641542222794</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3199,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>104.6990987647609</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3244,7 +3246,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>148.7223419617671</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3253,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3439,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>13.99728392830417</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3676,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225841</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3746,7 +3748,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>327.7192546563116</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3758,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>145.83876749105</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3913,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225759</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3955,7 +3957,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3964,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>122.1591039832982</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3992,7 +3994,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4028,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>3.29787703719187</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>303.7471051422474</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4141,19 +4143,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>43.70143389869456</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>565.2083903541807</v>
+        <v>1195.45039114996</v>
       </c>
       <c r="C2" t="n">
-        <v>531.106321578008</v>
+        <v>1161.348322373787</v>
       </c>
       <c r="D2" t="n">
-        <v>499.2369407928566</v>
+        <v>725.4385375482316</v>
       </c>
       <c r="E2" t="n">
-        <v>469.5025999915558</v>
+        <v>291.6637927065267</v>
       </c>
       <c r="F2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862856</v>
@@ -4331,16 +4333,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L2" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M2" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N2" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4355,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2586.408952615265</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U2" t="n">
-        <v>2586.408952615265</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V2" t="n">
-        <v>2223.792002549091</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W2" t="n">
-        <v>1818.936547960124</v>
+        <v>2045.1381447155</v>
       </c>
       <c r="X2" t="n">
-        <v>1399.794084539435</v>
+        <v>1625.99568129481</v>
       </c>
       <c r="Y2" t="n">
-        <v>991.5079608390885</v>
+        <v>1217.709557594464</v>
       </c>
     </row>
     <row r="3">
@@ -4407,22 +4409,22 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L3" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M3" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N3" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O3" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P3" t="n">
         <v>1058.729261281022</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516122</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C4" t="n">
-        <v>568.9155211348371</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D4" t="n">
-        <v>403.0375283363599</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E4" t="n">
-        <v>233.2795245870971</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F4" t="n">
-        <v>56.57247054885332</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G4" t="n">
-        <v>53.40121652862856</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H4" t="n">
         <v>53.40121652862856</v>
@@ -4510,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705994</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>448.5358106104095</v>
+        <v>1786.86986531245</v>
       </c>
       <c r="C5" t="n">
-        <v>414.4337418342369</v>
+        <v>1752.767796536277</v>
       </c>
       <c r="D5" t="n">
-        <v>382.5643610490854</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E5" t="n">
-        <v>352.8300202477847</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F5" t="n">
-        <v>329.0029946973964</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G5" t="n">
-        <v>329.0029946973964</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
         <v>53.81800590148855</v>
@@ -4571,46 +4573,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>2123.562040472833</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2123.562040472833</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2107.11942280532</v>
+        <v>2595.949215452322</v>
       </c>
       <c r="V5" t="n">
-        <v>2107.11942280532</v>
+        <v>2233.332265386148</v>
       </c>
       <c r="W5" t="n">
-        <v>1702.263968216353</v>
+        <v>2232.517214837585</v>
       </c>
       <c r="X5" t="n">
-        <v>1283.121504795664</v>
+        <v>2217.4151554573</v>
       </c>
       <c r="Y5" t="n">
-        <v>874.8353810953173</v>
+        <v>1809.129031756954</v>
       </c>
     </row>
     <row r="6">
@@ -4641,22 +4643,22 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>404.0232146552985</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K6" t="n">
-        <v>404.0232146552985</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="L6" t="n">
-        <v>404.0232146552985</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="M6" t="n">
-        <v>938.6281453713194</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="N6" t="n">
-        <v>938.6281453713194</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="O6" t="n">
         <v>1599.468199913098</v>
@@ -4699,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>933.2958513705998</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C7" t="n">
-        <v>760.7341398538248</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D7" t="n">
-        <v>594.8561470553475</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E7" t="n">
-        <v>594.8561470553475</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F7" t="n">
-        <v>418.1490930171037</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G7" t="n">
-        <v>252.5578180429314</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
-        <v>112.6556437333059</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
         <v>2154.361157596754</v>
@@ -4747,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2494.602160192524</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>2216.169159445629</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>1929.213651316059</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1657.187246902351</v>
       </c>
       <c r="X7" t="n">
-        <v>1160.715522056492</v>
+        <v>1411.795492235764</v>
       </c>
       <c r="Y7" t="n">
-        <v>933.2958513705998</v>
+        <v>1184.375821549872</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>791.4099871095558</v>
+        <v>2480.040423909638</v>
       </c>
       <c r="C8" t="n">
-        <v>757.3079183333832</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D8" t="n">
-        <v>321.3981335078277</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>291.6637927065269</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>267.8367671561387</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>267.8367671561387</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4832,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>2045.1381447155</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>1625.99568129481</v>
+        <v>2654.14371650258</v>
       </c>
       <c r="Y8" t="n">
-        <v>1217.709557594464</v>
+        <v>2649.897996842637</v>
       </c>
     </row>
     <row r="9">
@@ -4878,19 +4880,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>73.33088177303154</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
         <v>1058.729261281022</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>968.8969033375045</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348376</v>
+        <v>796.3351918207294</v>
       </c>
       <c r="D10" t="n">
-        <v>403.0375283363603</v>
+        <v>630.4571990222521</v>
       </c>
       <c r="E10" t="n">
-        <v>233.2795245870976</v>
+        <v>460.6991952729894</v>
       </c>
       <c r="F10" t="n">
-        <v>233.2795245870976</v>
+        <v>283.9921412347455</v>
       </c>
       <c r="G10" t="n">
-        <v>233.2795245870976</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>93.37735027747209</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -5005,7 +5007,7 @@
         <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1160.715522056492</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1610.431600006645</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C11" t="n">
-        <v>1610.431600006645</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D11" t="n">
-        <v>1174.52181518109</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>1174.52181518109</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>746.6543855902975</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>345.2565542135613</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677762</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J11" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K11" t="n">
-        <v>750.6905954094007</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L11" t="n">
-        <v>1445.254791162024</v>
+        <v>1168.830065571713</v>
       </c>
       <c r="M11" t="n">
-        <v>1445.254791162024</v>
+        <v>2325.877900782264</v>
       </c>
       <c r="N11" t="n">
-        <v>1445.254791162024</v>
+        <v>3451.608884218711</v>
       </c>
       <c r="O11" t="n">
-        <v>2139.818986914646</v>
+        <v>4431.788550789018</v>
       </c>
       <c r="P11" t="n">
-        <v>2806.319982838881</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="Q11" t="n">
-        <v>2806.319982838881</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838881</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838881</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T11" t="n">
-        <v>2797.046468082475</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U11" t="n">
-        <v>2797.046468082475</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V11" t="n">
-        <v>2434.429518016302</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W11" t="n">
-        <v>2029.574063427335</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X11" t="n">
-        <v>1610.431600006645</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y11" t="n">
-        <v>1610.431600006645</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I12" t="n">
-        <v>56.12639965677762</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>380.68472462299</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>1061.418244693367</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>1178.627222503511</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>1178.627222503511</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N12" t="n">
-        <v>1178.627222503511</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O12" t="n">
-        <v>1178.627222503511</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P12" t="n">
-        <v>1178.627222503511</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
-        <v>1719.366161135586</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>744.2024157797618</v>
+        <v>803.2639367364659</v>
       </c>
       <c r="C13" t="n">
-        <v>571.6407042629868</v>
+        <v>630.7022252196908</v>
       </c>
       <c r="D13" t="n">
-        <v>405.7627114645095</v>
+        <v>464.8242324212135</v>
       </c>
       <c r="E13" t="n">
-        <v>405.7627114645095</v>
+        <v>399.2635486026514</v>
       </c>
       <c r="F13" t="n">
-        <v>229.0556574262657</v>
+        <v>399.2635486026514</v>
       </c>
       <c r="G13" t="n">
-        <v>63.46438245209336</v>
+        <v>233.6722736284791</v>
       </c>
       <c r="H13" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2651.368188264949</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2492.126819562946</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T13" t="n">
-        <v>2246.247373141401</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U13" t="n">
-        <v>1967.814372394506</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V13" t="n">
-        <v>1680.858864264937</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W13" t="n">
-        <v>1408.832459851228</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X13" t="n">
-        <v>1163.440705184641</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y13" t="n">
-        <v>936.021034498749</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1475.906174557633</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C14" t="n">
-        <v>1037.763701741057</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D14" t="n">
-        <v>746.6543855902975</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E14" t="n">
-        <v>746.6543855902975</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F14" t="n">
-        <v>746.6543855902975</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G14" t="n">
-        <v>345.2565542135613</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677762</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J14" t="n">
-        <v>491.3810871096955</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>1185.945282862318</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>1880.509478614941</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M14" t="n">
-        <v>1880.509478614941</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N14" t="n">
-        <v>1880.509478614941</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O14" t="n">
-        <v>2575.073674367564</v>
+        <v>3418.614711553115</v>
       </c>
       <c r="P14" t="n">
-        <v>2806.319982838881</v>
+        <v>4246.924586386512</v>
       </c>
       <c r="Q14" t="n">
-        <v>2806.319982838881</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838881</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.668109022718</v>
+        <v>4658.282448704717</v>
       </c>
       <c r="T14" t="n">
-        <v>2502.600881895757</v>
+        <v>4438.215221577756</v>
       </c>
       <c r="U14" t="n">
-        <v>2243.378579212774</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="V14" t="n">
-        <v>1880.7616291466</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W14" t="n">
-        <v>1475.906174557633</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X14" t="n">
-        <v>1475.906174557633</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y14" t="n">
-        <v>1475.906174557633</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I15" t="n">
-        <v>82.19007281723522</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>406.7483977834476</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>406.7483977834476</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L15" t="n">
-        <v>406.7483977834476</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M15" t="n">
-        <v>406.7483977834476</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N15" t="n">
-        <v>406.7483977834476</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O15" t="n">
-        <v>406.7483977834476</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P15" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1135.184560268659</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C16" t="n">
-        <v>962.6228487518839</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D16" t="n">
-        <v>796.7448559534066</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E16" t="n">
-        <v>626.9868522041439</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F16" t="n">
-        <v>450.2797981659001</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G16" t="n">
-        <v>284.6885231917278</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7863488821023</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2651.368188264949</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2651.368188264949</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="T16" t="n">
-        <v>2405.488741843405</v>
+        <v>2443.132441505481</v>
       </c>
       <c r="U16" t="n">
-        <v>2358.796516883403</v>
+        <v>2164.699440758586</v>
       </c>
       <c r="V16" t="n">
-        <v>2071.841008753834</v>
+        <v>1882.065037730018</v>
       </c>
       <c r="W16" t="n">
-        <v>1799.814604340125</v>
+        <v>1610.03863331631</v>
       </c>
       <c r="X16" t="n">
-        <v>1554.422849673538</v>
+        <v>1364.646878649722</v>
       </c>
       <c r="Y16" t="n">
-        <v>1327.003178987646</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="17">
@@ -5513,31 +5515,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L17" t="n">
-        <v>1371.865819681875</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M17" t="n">
-        <v>2528.913654892426</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
         <v>5029.390139722817</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882658</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365883</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674054</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H19" t="n">
         <v>190.9207894961043</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497402</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367833</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954124</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.557290287537</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601645</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D21" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E21" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F21" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G21" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R21" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S21" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T21" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U21" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V21" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W21" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X21" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y21" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3205.876241053795</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C22" t="n">
-        <v>3033.31452953702</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D22" t="n">
-        <v>2867.436536738543</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E22" t="n">
-        <v>2697.67853298928</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F22" t="n">
-        <v>2520.971478951036</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>4953.800644836978</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T22" t="n">
-        <v>4707.921198415434</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U22" t="n">
-        <v>4429.488197668539</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V22" t="n">
-        <v>4142.53268953897</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W22" t="n">
-        <v>3870.506285125261</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X22" t="n">
-        <v>3625.114530458674</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y22" t="n">
-        <v>3397.694859772782</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1077.292364523333</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C25" t="n">
-        <v>904.7306530065579</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6181,16 +6183,16 @@
         <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>2013.948813008508</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1741.922408594799</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1496.530653928212</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1269.11098324232</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>3137.402081918264</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4117.581748488571</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4945.891623321967</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>4945.891623321967</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C27" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D27" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E27" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F27" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G27" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>3752.579908427708</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>3752.579908427708</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>3752.579908427708</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>3752.579908427708</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>3752.579908427708</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>4572.303074906906</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S27" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T27" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U27" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V27" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W27" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X27" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y27" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2613.163784754629</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2367.284338333084</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2088.851337586189</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1801.895829456619</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1529.869425042911</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1284.477670376323</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6500,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6546,13 +6548,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>1056.803889081883</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>1056.803889081883</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6680,46 +6682,46 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E32" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>537.5155277236975</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>1612.575493976557</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2769.623329187108</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>3895.354312623555</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>4875.533979193861</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4875.533979193861</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,7 +6739,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C33" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D33" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E33" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F33" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G33" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H33" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I33" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J33" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R33" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S33" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T33" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U33" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V33" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W33" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X33" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y33" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>927.0677766831641</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C34" t="n">
-        <v>754.506065166389</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D34" t="n">
-        <v>588.6280723679117</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E34" t="n">
-        <v>418.8700686186489</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F34" t="n">
-        <v>242.1630145804051</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
         <v>242.1630145804051</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2613.163784754629</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2367.284338333084</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2088.851337586189</v>
       </c>
       <c r="V34" t="n">
-        <v>1863.724225168339</v>
+        <v>1801.895829456619</v>
       </c>
       <c r="W34" t="n">
-        <v>1591.697820754631</v>
+        <v>1529.869425042911</v>
       </c>
       <c r="X34" t="n">
-        <v>1346.306066088043</v>
+        <v>1284.477670376323</v>
       </c>
       <c r="Y34" t="n">
-        <v>1118.886395402151</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6938,25 +6940,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7011,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2683.3639582443</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2404.930957497405</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771588</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,49 +7174,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
         <v>2955.199618136696</v>
@@ -7248,28 +7250,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>3365.117609755799</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>3192.555898239023</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>3026.677905440546</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>2856.919901691283</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>2680.21284765304</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057297</v>
+        <v>2514.621572678867</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T40" t="n">
-        <v>2683.3639582443</v>
+        <v>4867.162567117437</v>
       </c>
       <c r="U40" t="n">
-        <v>2404.930957497405</v>
+        <v>4588.729566370543</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>4301.774058240973</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>4029.747653827265</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>3784.355899160677</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>3556.936228474786</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2380.020412353972</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C41" t="n">
-        <v>1941.877939537396</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D41" t="n">
-        <v>1505.96815471184</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E41" t="n">
-        <v>1174.93860455395</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F41" t="n">
-        <v>747.0711749631574</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G41" t="n">
-        <v>345.6733435864213</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H41" t="n">
-        <v>56.5431890296376</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677761</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J41" t="n">
-        <v>56.12639965677761</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K41" t="n">
-        <v>750.6905954094003</v>
+        <v>791.8814989714183</v>
       </c>
       <c r="L41" t="n">
-        <v>1445.254791162023</v>
+        <v>1866.941465224278</v>
       </c>
       <c r="M41" t="n">
-        <v>2111.755787086257</v>
+        <v>1866.941465224278</v>
       </c>
       <c r="N41" t="n">
-        <v>2806.31998283888</v>
+        <v>2992.672448660725</v>
       </c>
       <c r="O41" t="n">
-        <v>2806.31998283888</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="P41" t="n">
-        <v>2806.31998283888</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q41" t="n">
-        <v>2806.31998283888</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.31998283888</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.31998283888</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T41" t="n">
-        <v>2806.31998283888</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="U41" t="n">
-        <v>2806.31998283888</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="V41" t="n">
-        <v>2806.31998283888</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W41" t="n">
-        <v>2806.31998283888</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X41" t="n">
-        <v>2806.31998283888</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y41" t="n">
-        <v>2806.31998283888</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056513</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677761</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I42" t="n">
-        <v>56.12639965677761</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>56.12639965677761</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>56.12639965677761</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>56.12639965677761</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>750.6905954094003</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>1445.254791162023</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>1719.366161135586</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>1719.366161135586</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1719.366161135586</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1268.718533547962</v>
+        <v>962.5053054384693</v>
       </c>
       <c r="C43" t="n">
-        <v>1096.156822031187</v>
+        <v>789.9435939216943</v>
       </c>
       <c r="D43" t="n">
-        <v>930.2788292327095</v>
+        <v>624.065601123217</v>
       </c>
       <c r="E43" t="n">
-        <v>760.5208254834467</v>
+        <v>454.3075973739543</v>
       </c>
       <c r="F43" t="n">
-        <v>583.813771445203</v>
+        <v>277.6005433357104</v>
       </c>
       <c r="G43" t="n">
-        <v>418.2224964710306</v>
+        <v>112.0092683615381</v>
       </c>
       <c r="H43" t="n">
-        <v>278.3203221614052</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I43" t="n">
-        <v>189.6603729360805</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J43" t="n">
-        <v>276.2400581007703</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>550.9985126719059</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>969.208394439867</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1428.69226162078</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1870.951064778425</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2290.620314004206</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2638.127207974548</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2806.31998283888</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2784.902161544252</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2625.660792842249</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.781346420704</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U43" t="n">
-        <v>2101.348345673809</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V43" t="n">
-        <v>2101.348345673809</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W43" t="n">
-        <v>1829.321941260101</v>
+        <v>1627.135349509936</v>
       </c>
       <c r="X43" t="n">
-        <v>1583.930186593513</v>
+        <v>1381.743594843348</v>
       </c>
       <c r="Y43" t="n">
-        <v>1460.537152266949</v>
+        <v>1154.323924157457</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1755.492979664426</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C44" t="n">
-        <v>1755.492979664426</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D44" t="n">
-        <v>1319.583194838871</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E44" t="n">
-        <v>885.808449997166</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F44" t="n">
-        <v>457.9410204063737</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>56.5431890296376</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>56.5431890296376</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677761</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J44" t="n">
-        <v>491.3810871096955</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K44" t="n">
-        <v>1185.945282862318</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L44" t="n">
-        <v>1185.945282862318</v>
+        <v>1168.830065571713</v>
       </c>
       <c r="M44" t="n">
-        <v>1880.509478614941</v>
+        <v>2325.877900782264</v>
       </c>
       <c r="N44" t="n">
-        <v>2575.073674367564</v>
+        <v>3451.608884218711</v>
       </c>
       <c r="O44" t="n">
-        <v>2637.165918085823</v>
+        <v>4431.788550789018</v>
       </c>
       <c r="P44" t="n">
-        <v>2637.165918085823</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="Q44" t="n">
-        <v>2637.165918085823</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.31998283888</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S44" t="n">
-        <v>2806.31998283888</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T44" t="n">
-        <v>2586.252755711919</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="U44" t="n">
-        <v>2586.252755711919</v>
+        <v>4429.282663259699</v>
       </c>
       <c r="V44" t="n">
-        <v>2586.252755711919</v>
+        <v>4066.665713193525</v>
       </c>
       <c r="W44" t="n">
-        <v>2582.921566785462</v>
+        <v>3661.810258604559</v>
       </c>
       <c r="X44" t="n">
-        <v>2163.779103364773</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y44" t="n">
-        <v>1755.492979664426</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1649.251966351364</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C45" t="n">
-        <v>1542.795505188006</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D45" t="n">
-        <v>1447.70521633456</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>1353.584801661513</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>1270.200963277675</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>1184.815873543859</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>1143.080221360071</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I45" t="n">
-        <v>1169.143894520529</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>1493.702219486741</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>2148.408266112465</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>2148.408266112465</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>2148.408266112465</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.408266112465</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>2148.408266112465</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>2148.408266112465</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>2689.14720474454</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>2806.31998283888</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S45" t="n">
-        <v>2742.864545287263</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T45" t="n">
-        <v>2612.685901617865</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>2436.349354617833</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V45" t="n">
-        <v>2237.231836679833</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>2051.909082413027</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>1897.041646651907</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y45" t="n">
-        <v>1770.555867431127</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>877.7363890590645</v>
+        <v>944.2661363957848</v>
       </c>
       <c r="C46" t="n">
-        <v>705.1746775422895</v>
+        <v>771.7044248790097</v>
       </c>
       <c r="D46" t="n">
-        <v>539.2966847438122</v>
+        <v>605.8264320805324</v>
       </c>
       <c r="E46" t="n">
-        <v>539.2966847438122</v>
+        <v>436.0684283312697</v>
       </c>
       <c r="F46" t="n">
-        <v>539.2966847438122</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G46" t="n">
-        <v>373.7054097696399</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H46" t="n">
-        <v>233.8032354600144</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I46" t="n">
-        <v>189.6603729360805</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J46" t="n">
-        <v>276.2400581007703</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>550.9985126719059</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>969.208394439867</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1428.69226162078</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1870.951064778425</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2290.620314004206</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2638.127207974548</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2806.31998283888</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2784.902161544252</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2625.660792842249</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.781346420704</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U46" t="n">
-        <v>2101.348345673809</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V46" t="n">
-        <v>1814.392837544239</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W46" t="n">
-        <v>1542.366433130531</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X46" t="n">
-        <v>1296.974678463944</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y46" t="n">
-        <v>1069.555007778052</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7981,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O2" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L2" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -8055,7 +8057,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>321.6407242930886</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8073,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8146,7 +8148,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956003</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8219,25 +8221,25 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>316.389926674475</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
@@ -8298,16 +8300,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M6" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>566.3319231075541</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.13097499434645</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -8535,13 +8537,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8690,22 +8692,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>701.5799957097202</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>673.2333292163985</v>
+        <v>259.3095102562265</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8763,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>118.3929068789328</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,10 +8929,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097202</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>701.5799957097202</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>233.5821297690068</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>446.0407874304756</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9006,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>60.59188538505214</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9884,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9893,10 +9895,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>168.8387779969835</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>305.8360165328636</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10127,13 +10129,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>69.04441372935617</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,16 +10196,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="N30" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10367,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>69.04441372935617</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,13 +10588,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1005.515419242839</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10604,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,22 +10831,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1005.515419242839</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1233.847129715411</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11060,28 +11062,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>701.57999570972</v>
+        <v>705.1630299520855</v>
       </c>
       <c r="L41" t="n">
-        <v>701.57999570972</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>673.233329216398</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097202</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>701.57999570972</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>701.57999570972</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>276.8801716904679</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097199</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097199</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5799957097202</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>62.71943809925187</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>259.3095102562265</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>411.8858435779281</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>208.68577524685</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>103.1553467313936</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.2385495991666</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23492,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>143.3524639880482</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>52.89506301241612</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23707,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>229.4233680290246</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>4.277894049991801</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23899,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>84.63380825304883</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473401</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.592177662725</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>102.9863699957347</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>74.15349933190419</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>208.2197249473434</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>52.94985625022238</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>135.3636110865067</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>69.71657238081424</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>120.4463752142708</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25634,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>101.7177427369762</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,19 +25684,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>110.7913121651032</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>120.4463752142716</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>102.9863699957346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25880,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25916,19 +25918,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>397.5090230058851</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>111.203933644235</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>44.07191583437685</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>428413.9981428109</v>
+        <v>606993.0910873043</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>428413.9981428109</v>
+        <v>606993.0910873044</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>647272.5756021902</v>
+        <v>647272.5756021901</v>
       </c>
     </row>
     <row r="8">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>428413.9981428109</v>
+        <v>606993.0910873044</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>428413.9981428108</v>
+        <v>606993.0910873044</v>
       </c>
     </row>
   </sheetData>
@@ -26320,10 +26322,10 @@
         <v>375303.123923286</v>
       </c>
       <c r="E2" t="n">
-        <v>244099.9677817452</v>
+        <v>345850.0296919845</v>
       </c>
       <c r="F2" t="n">
-        <v>244099.9677817453</v>
+        <v>345850.0296919845</v>
       </c>
       <c r="G2" t="n">
         <v>368800.3088961467</v>
@@ -26335,25 +26337,25 @@
         <v>368800.3088961467</v>
       </c>
       <c r="J2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961465</v>
       </c>
       <c r="K2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961465</v>
       </c>
       <c r="L2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961466</v>
       </c>
       <c r="M2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961466</v>
       </c>
       <c r="N2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961466</v>
       </c>
       <c r="O2" t="n">
-        <v>244099.9677817452</v>
+        <v>345850.0296919845</v>
       </c>
       <c r="P2" t="n">
-        <v>244099.9677817452</v>
+        <v>345850.0296919846</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045615</v>
+        <v>150665.7535717478</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461093</v>
+        <v>29089.80917260791</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340753</v>
+        <v>125751.0883356907</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,13 +26423,13 @@
         <v>173889.5352664431</v>
       </c>
       <c r="D4" t="n">
-        <v>173889.5352664431</v>
+        <v>173889.535266443</v>
       </c>
       <c r="E4" t="n">
-        <v>62797.73829708053</v>
+        <v>88974.20123403626</v>
       </c>
       <c r="F4" t="n">
-        <v>62797.73829708053</v>
+        <v>88974.20123403627</v>
       </c>
       <c r="G4" t="n">
         <v>94878.44464875289</v>
@@ -26439,7 +26441,7 @@
         <v>94878.44464875289</v>
       </c>
       <c r="J4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="K4" t="n">
         <v>94878.44464875288</v>
@@ -26451,13 +26453,13 @@
         <v>94878.44464875289</v>
       </c>
       <c r="N4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="O4" t="n">
-        <v>62797.73829708052</v>
+        <v>88974.20123403627</v>
       </c>
       <c r="P4" t="n">
-        <v>62797.73829708052</v>
+        <v>88974.20123403626</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.06373915099</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.06373915099</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26505,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.06373915097</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.06373915097</v>
+        <v>71265.27548232877</v>
       </c>
     </row>
     <row r="6">
@@ -26522,19 +26524,19 @@
         <v>-96498.63448895961</v>
       </c>
       <c r="C6" t="n">
-        <v>127201.0640950853</v>
+        <v>127201.0640950852</v>
       </c>
       <c r="D6" t="n">
         <v>127201.0640950853</v>
       </c>
       <c r="E6" t="n">
-        <v>128475.1691450576</v>
+        <v>34944.79940387167</v>
       </c>
       <c r="F6" t="n">
-        <v>138646.1657455138</v>
+        <v>185610.5529756195</v>
       </c>
       <c r="G6" t="n">
-        <v>38144.14869549198</v>
+        <v>167113.8164689933</v>
       </c>
       <c r="H6" t="n">
         <v>196203.6256416013</v>
@@ -26543,25 +26545,25 @@
         <v>196203.6256416013</v>
       </c>
       <c r="J6" t="n">
-        <v>21552.27692389513</v>
+        <v>21552.276923895</v>
       </c>
       <c r="K6" t="n">
-        <v>196203.6256416013</v>
+        <v>196203.6256416012</v>
       </c>
       <c r="L6" t="n">
-        <v>196203.6256416013</v>
+        <v>196203.6256416012</v>
       </c>
       <c r="M6" t="n">
-        <v>187714.5439382605</v>
+        <v>70452.53730591055</v>
       </c>
       <c r="N6" t="n">
-        <v>196203.6256416013</v>
+        <v>196203.6256416012</v>
       </c>
       <c r="O6" t="n">
-        <v>138646.1657455137</v>
+        <v>185610.5529756194</v>
       </c>
       <c r="P6" t="n">
-        <v>138646.1657455137</v>
+        <v>185610.5529756196</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097203</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097203</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.57999570972</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>701.57999570972</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186334</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.6805076750251</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186334</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186334</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.6805076750251</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.06100714571784</v>
+        <v>187.7088048787651</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27549,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>160.7958207444081</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>34.67467827192613</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27613,73 +27615,73 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>286.2388530112159</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>82.81535507800136</v>
+      </c>
+      <c r="T5" t="n">
+        <v>217.8665548556918</v>
+      </c>
+      <c r="U5" t="n">
+        <v>183.2595847868383</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>400</v>
       </c>
-      <c r="E5" t="n">
+      <c r="X5" t="n">
         <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>397.3838530629687</v>
-      </c>
-      <c r="H5" t="n">
-        <v>13.80571410326712</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>358.9907805655117</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>29.11146680044084</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>69.71657238081409</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>253.8775775763891</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>73.94765788998086</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27913,13 +27915,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28020,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>161.9268490649754</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>48.19697732171632</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -28612,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28728,7 +28730,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>3.205021433435225e-12</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -34699,19 +34701,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O2" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L2" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -34775,7 +34777,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>321.6407242930886</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34793,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34863,10 +34865,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956003</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
@@ -34939,25 +34941,25 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>316.389926674475</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
@@ -35018,16 +35020,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M6" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>566.3319231075541</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.13097499434645</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -35255,13 +35257,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>701.5799957097202</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P11" t="n">
-        <v>673.2333292163985</v>
+        <v>259.3095102562265</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35483,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327045</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>118.3929068789328</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35504,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35647,10 +35649,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097202</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>701.5799957097202</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35659,13 +35661,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>233.5821297690068</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>446.0407874304756</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>60.59188538505214</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K21" t="n">
         <v>661.3192390158824</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36276,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36604,19 +36606,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>168.8387779969835</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>305.8360165328636</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,13 +36691,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>69.04441372935617</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="N30" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>69.04441372935617</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K33" t="n">
         <v>661.3192390158824</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37306,13 +37308,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1005.515419242839</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37324,10 +37326,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1005.515419242839</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,7 +37633,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1233.847129715411</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>701.57999570972</v>
+        <v>705.1630299520855</v>
       </c>
       <c r="L41" t="n">
-        <v>701.57999570972</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>673.233329216398</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097202</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>701.57999570972</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>701.57999570972</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>276.8801716904679</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097199</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097199</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5799957097202</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>62.71943809925187</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>259.3095102562265</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>970251.2303133977</v>
+        <v>969645.1426845002</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16659530.99074006</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797166</v>
+        <v>606553.2040797167</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>135.4611879314772</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>235.8799504161192</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -837,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>122.9742767430572</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -879,10 +879,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>125.1716544454842</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>294.4697136880074</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
@@ -904,13 +904,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>73.37049486931492</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1056,13 +1056,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>137.2470510215434</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1071,7 +1071,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>173.7040795765152</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>168.1589972036696</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -1141,19 +1141,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>30.15774997692665</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1305,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>2.008513159455165</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1359,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1372,13 +1372,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>21.87520451048285</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>17.5511538153596</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1536,16 +1536,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>64.90507698037648</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.92029206558524</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>342.5106299427092</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1770,7 +1770,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>52.7955605659102</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1815,16 +1815,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>279.808058998282</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -2013,16 +2013,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>90.30617524481251</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2092,7 +2092,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2253,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>160.788496495006</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>14.14416275345333</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>98.73120706589778</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3204,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>104.6990987647609</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3255,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3432,19 +3432,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>123.7760609888572</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>18.05677735225717</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>98.73120706589795</v>
       </c>
       <c r="H40" t="n">
-        <v>18.05677735225841</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>17.5511538153596</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>145.83876749105</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3900,7 +3900,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3915,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>18.05677735225759</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>206.0370214115938</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3988,7 +3988,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>11.70291171695604</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4042,7 +4042,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>303.7471051422474</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>18.05677735225759</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1195.45039114996</v>
+        <v>969.2487943945847</v>
       </c>
       <c r="C2" t="n">
-        <v>1161.348322373787</v>
+        <v>832.4193116355168</v>
       </c>
       <c r="D2" t="n">
-        <v>725.4385375482316</v>
+        <v>396.5095268099613</v>
       </c>
       <c r="E2" t="n">
-        <v>291.6637927065267</v>
+        <v>366.7751860086605</v>
       </c>
       <c r="F2" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862856</v>
@@ -4333,16 +4333,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4357,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2449.993599304466</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U2" t="n">
-        <v>2449.993599304466</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V2" t="n">
-        <v>2449.993599304466</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="W2" t="n">
-        <v>2045.1381447155</v>
+        <v>2222.976952000528</v>
       </c>
       <c r="X2" t="n">
-        <v>1625.99568129481</v>
+        <v>1803.834488579839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1217.709557594464</v>
+        <v>1395.548364879493</v>
       </c>
     </row>
     <row r="3">
@@ -4412,19 +4412,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
         <v>1058.729261281022</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1043.799427915185</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>871.2377163984103</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>705.359723599933</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>535.6017198506702</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>358.8946658124264</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
         <v>53.40121652862856</v>
@@ -4500,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4512,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2545.844385276825</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2545.844385276825</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>2267.41138452993</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1980.45587640036</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1708.429471986652</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="X4" t="n">
-        <v>1463.037717320064</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
-        <v>1235.618046634173</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1786.86986531245</v>
+        <v>577.3912258549058</v>
       </c>
       <c r="C5" t="n">
-        <v>1752.767796536277</v>
+        <v>543.2891570787331</v>
       </c>
       <c r="D5" t="n">
-        <v>1316.858011710722</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E5" t="n">
-        <v>883.0832668690169</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F5" t="n">
-        <v>455.2158372782247</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
         <v>53.81800590148855</v>
@@ -4594,25 +4594,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2595.949215452322</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>2233.332265386148</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W5" t="n">
-        <v>2232.517214837585</v>
+        <v>1702.263968216353</v>
       </c>
       <c r="X5" t="n">
-        <v>2217.4151554573</v>
+        <v>1283.121504795664</v>
       </c>
       <c r="Y5" t="n">
-        <v>1809.129031756954</v>
+        <v>874.8353810953173</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>377.9595414948409</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>992.5572028308845</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C7" t="n">
-        <v>819.9954913141095</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="D7" t="n">
-        <v>654.1174985156322</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E7" t="n">
-        <v>484.3594947663694</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>307.6524407281256</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>142.0611657539532</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
         <v>142.0611657539532</v>
@@ -4725,19 +4725,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
         <v>2154.361157596754</v>
@@ -4752,25 +4752,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2670.060826431428</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T7" t="n">
-        <v>2494.602160192524</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>2216.169159445629</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V7" t="n">
-        <v>1929.213651316059</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W7" t="n">
-        <v>1657.187246902351</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X7" t="n">
-        <v>1411.795492235764</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y7" t="n">
-        <v>1184.375821549872</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2480.040423909638</v>
+        <v>981.0148405224497</v>
       </c>
       <c r="C8" t="n">
-        <v>2041.897951093061</v>
+        <v>542.872367705873</v>
       </c>
       <c r="D8" t="n">
-        <v>1605.988166267505</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>1172.213421425801</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>744.3459918350084</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1375.081325612185</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>2035.921380153963</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>2670.060826431428</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="W8" t="n">
-        <v>2669.245775882865</v>
+        <v>2234.742998128394</v>
       </c>
       <c r="X8" t="n">
-        <v>2654.14371650258</v>
+        <v>1815.600534707704</v>
       </c>
       <c r="Y8" t="n">
-        <v>2649.897996842637</v>
+        <v>1407.314411007358</v>
       </c>
     </row>
     <row r="9">
@@ -4889,16 +4889,16 @@
         <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>968.8969033375045</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C10" t="n">
-        <v>796.3351918207294</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>630.4571990222521</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>460.6991952729894</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>283.9921412347455</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y10" t="n">
-        <v>1160.715522056492</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="11">
@@ -5020,10 +5020,10 @@
         <v>2104.363000055491</v>
       </c>
       <c r="C11" t="n">
-        <v>2082.266833883286</v>
+        <v>1666.220527238914</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.357049057731</v>
+        <v>1230.310742413359</v>
       </c>
       <c r="E11" t="n">
         <v>1212.582304216026</v>
@@ -5041,25 +5041,25 @@
         <v>93.77009931885365</v>
       </c>
       <c r="J11" t="n">
-        <v>93.77009931885365</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>93.77009931885365</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>1168.830065571713</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M11" t="n">
-        <v>2325.877900782264</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N11" t="n">
-        <v>3451.608884218711</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O11" t="n">
-        <v>4431.788550789018</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P11" t="n">
-        <v>4688.504965942682</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q11" t="n">
         <v>4688.504965942682</v>
@@ -5123,22 +5123,22 @@
         <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>444.3920974455236</v>
+        <v>1125.125617515901</v>
       </c>
       <c r="L12" t="n">
-        <v>444.3920974455236</v>
+        <v>1125.125617515901</v>
       </c>
       <c r="M12" t="n">
-        <v>444.3920974455236</v>
+        <v>1125.125617515901</v>
       </c>
       <c r="N12" t="n">
-        <v>444.3920974455236</v>
+        <v>1125.125617515901</v>
       </c>
       <c r="O12" t="n">
-        <v>444.3920974455236</v>
+        <v>1125.125617515901</v>
       </c>
       <c r="P12" t="n">
-        <v>1099.098144071247</v>
+        <v>1125.125617515901</v>
       </c>
       <c r="Q12" t="n">
         <v>1639.837082703323</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.2639367364659</v>
+        <v>944.2661363957848</v>
       </c>
       <c r="C13" t="n">
-        <v>630.7022252196908</v>
+        <v>771.7044248790097</v>
       </c>
       <c r="D13" t="n">
-        <v>464.8242324212135</v>
+        <v>605.8264320805324</v>
       </c>
       <c r="E13" t="n">
-        <v>399.2635486026514</v>
+        <v>436.0684283312697</v>
       </c>
       <c r="F13" t="n">
-        <v>399.2635486026514</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G13" t="n">
-        <v>233.6722736284791</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H13" t="n">
         <v>93.77009931885365</v>
@@ -5226,25 +5226,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2551.18834051965</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T13" t="n">
-        <v>2305.308894098105</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U13" t="n">
-        <v>2026.87589335121</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V13" t="n">
-        <v>1739.920385221641</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W13" t="n">
-        <v>1467.893980807932</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X13" t="n">
-        <v>1222.502226141345</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y13" t="n">
-        <v>995.0825554554531</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="14">
@@ -5284,19 +5284,19 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="M14" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="N14" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O14" t="n">
-        <v>3418.614711553115</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P14" t="n">
-        <v>4246.924586386512</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q14" t="n">
         <v>4688.504965942682</v>
@@ -5305,19 +5305,19 @@
         <v>4688.504965942682</v>
       </c>
       <c r="S14" t="n">
-        <v>4658.282448704717</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T14" t="n">
-        <v>4438.215221577756</v>
+        <v>4468.437738815721</v>
       </c>
       <c r="U14" t="n">
-        <v>4178.992918894773</v>
+        <v>4468.437738815721</v>
       </c>
       <c r="V14" t="n">
-        <v>4178.992918894773</v>
+        <v>4105.820788749547</v>
       </c>
       <c r="W14" t="n">
-        <v>3774.137464305806</v>
+        <v>3700.965334160581</v>
       </c>
       <c r="X14" t="n">
         <v>3354.995000885117</v>
@@ -5360,22 +5360,22 @@
         <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>1099.098144071247</v>
+        <v>1125.125617515901</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.098144071247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="M15" t="n">
-        <v>1099.098144071247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="N15" t="n">
-        <v>1099.098144071247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="O15" t="n">
-        <v>1099.098144071247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="P15" t="n">
-        <v>1099.098144071247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="Q15" t="n">
         <v>1639.837082703323</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1172.828259930735</v>
+        <v>1060.279116188733</v>
       </c>
       <c r="C16" t="n">
-        <v>1000.26654841396</v>
+        <v>887.7174046719575</v>
       </c>
       <c r="D16" t="n">
         <v>834.3885556154826</v>
@@ -5463,25 +5463,25 @@
         <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2689.011887927025</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T16" t="n">
-        <v>2443.132441505481</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U16" t="n">
-        <v>2164.699440758586</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="V16" t="n">
-        <v>1882.065037730018</v>
+        <v>1996.935564673907</v>
       </c>
       <c r="W16" t="n">
-        <v>1610.03863331631</v>
+        <v>1724.909160260199</v>
       </c>
       <c r="X16" t="n">
-        <v>1364.646878649722</v>
+        <v>1479.517405593612</v>
       </c>
       <c r="Y16" t="n">
-        <v>1364.646878649722</v>
+        <v>1252.09773490772</v>
       </c>
     </row>
     <row r="17">
@@ -5503,40 +5503,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
         <v>5113.04201353898</v>
@@ -5554,13 +5554,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D19" t="n">
-        <v>451.897152078511</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E19" t="n">
-        <v>282.1391483292483</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F19" t="n">
-        <v>190.9207894961043</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G19" t="n">
-        <v>190.9207894961043</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>949.5782250957668</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>777.0165135789917</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>611.1385207805145</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>441.3805170312517</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>264.6734629930079</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>282.1391483292483</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6180,19 +6180,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6235,7 +6235,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3449.802252060173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>3449.802252060173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>3752.579908427708</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>3752.579908427708</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>3752.579908427708</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>3752.579908427708</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>3752.579908427708</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>4572.303074906906</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>5113.042013538981</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6466,19 +6466,19 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2769.623329187108</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>3895.354312623555</v>
+        <v>3572.656769371182</v>
       </c>
       <c r="O29" t="n">
-        <v>4875.533979193861</v>
+        <v>4115.578073952528</v>
       </c>
       <c r="P29" t="n">
         <v>4943.887948785924</v>
@@ -6502,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="32">
@@ -6682,19 +6682,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6703,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>388.1086717343205</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6739,7 +6739,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2613.163784754629</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2367.284338333084</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2088.851337586189</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1801.895829456619</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1529.869425042911</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1284.477670376323</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6925,37 +6925,37 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4440.279291740943</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
         <v>4943.887948785924</v>
@@ -7013,10 +7013,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
         <v>1107.588885023173</v>
@@ -7080,16 +7080,16 @@
         <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7983383258798</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F37" t="n">
-        <v>286.091284287636</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G37" t="n">
-        <v>120.5000093134636</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>120.5000093134636</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7213,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3365.117609755799</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C40" t="n">
-        <v>3192.555898239023</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D40" t="n">
-        <v>3026.677905440546</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="E40" t="n">
-        <v>2856.919901691283</v>
+        <v>607.2585098297291</v>
       </c>
       <c r="F40" t="n">
-        <v>2680.21284765304</v>
+        <v>430.5514557914853</v>
       </c>
       <c r="G40" t="n">
-        <v>2514.621572678867</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T40" t="n">
-        <v>4867.162567117437</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U40" t="n">
-        <v>4588.729566370543</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V40" t="n">
-        <v>4301.774058240973</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W40" t="n">
-        <v>4029.747653827265</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X40" t="n">
-        <v>3784.355899160677</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y40" t="n">
-        <v>3556.936228474786</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2519.992517327003</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C41" t="n">
-        <v>2081.850044510426</v>
+        <v>1666.220527238914</v>
       </c>
       <c r="D41" t="n">
-        <v>1645.940259684871</v>
+        <v>1230.310742413359</v>
       </c>
       <c r="E41" t="n">
-        <v>1212.165514843166</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F41" t="n">
-        <v>784.2980852523735</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G41" t="n">
-        <v>382.9002538756374</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>93.77009931885365</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I41" t="n">
         <v>93.77009931885365</v>
       </c>
       <c r="J41" t="n">
-        <v>93.77009931885365</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>791.8814989714183</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>1866.941465224278</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>1866.941465224278</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N41" t="n">
-        <v>2992.672448660725</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O41" t="n">
-        <v>3972.852115231031</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P41" t="n">
-        <v>3972.852115231031</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q41" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R41" t="n">
         <v>4688.504965942682</v>
       </c>
       <c r="S41" t="n">
-        <v>4688.504965942682</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T41" t="n">
-        <v>4688.504965942682</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U41" t="n">
-        <v>4541.193079588086</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V41" t="n">
-        <v>4178.576129521913</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W41" t="n">
-        <v>3773.720674932946</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X41" t="n">
-        <v>3354.578211512257</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y41" t="n">
-        <v>2946.29208781191</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="42">
@@ -7487,10 +7487,10 @@
         <v>93.77009931885365</v>
       </c>
       <c r="I42" t="n">
-        <v>119.8337724793113</v>
+        <v>93.80629903465757</v>
       </c>
       <c r="J42" t="n">
-        <v>444.3920974455236</v>
+        <v>418.3646240008699</v>
       </c>
       <c r="K42" t="n">
         <v>1099.098144071247</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>962.5053054384693</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="C43" t="n">
-        <v>789.9435939216943</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D43" t="n">
-        <v>624.065601123217</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E43" t="n">
-        <v>454.3075973739543</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F43" t="n">
-        <v>277.6005433357104</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G43" t="n">
-        <v>112.0092683615381</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H43" t="n">
-        <v>93.77009931885365</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I43" t="n">
         <v>93.77009931885365</v>
@@ -7599,22 +7599,22 @@
         <v>2710.429709221653</v>
       </c>
       <c r="T43" t="n">
-        <v>2464.550262800109</v>
+        <v>2502.311505775599</v>
       </c>
       <c r="U43" t="n">
-        <v>2186.117262053214</v>
+        <v>2223.878505028704</v>
       </c>
       <c r="V43" t="n">
-        <v>1899.161753923644</v>
+        <v>1936.922996899135</v>
       </c>
       <c r="W43" t="n">
-        <v>1627.135349509936</v>
+        <v>1664.896592485426</v>
       </c>
       <c r="X43" t="n">
-        <v>1381.743594843348</v>
+        <v>1419.504837818839</v>
       </c>
       <c r="Y43" t="n">
-        <v>1154.323924157457</v>
+        <v>1192.085167132947</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2520.409306699863</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C44" t="n">
-        <v>2082.266833883286</v>
+        <v>1666.220527238914</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.357049057731</v>
+        <v>1230.310742413359</v>
       </c>
       <c r="E44" t="n">
-        <v>1212.582304216026</v>
+        <v>796.5359975716538</v>
       </c>
       <c r="F44" t="n">
         <v>784.7148746252335</v>
@@ -7648,25 +7648,25 @@
         <v>93.77009931885365</v>
       </c>
       <c r="J44" t="n">
-        <v>93.77009931885365</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>93.77009931885365</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>1168.830065571713</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="M44" t="n">
-        <v>2325.877900782264</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="N44" t="n">
-        <v>3451.608884218711</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O44" t="n">
-        <v>4431.788550789018</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P44" t="n">
-        <v>4688.504965942682</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q44" t="n">
         <v>4688.504965942682</v>
@@ -7675,25 +7675,25 @@
         <v>4688.504965942682</v>
       </c>
       <c r="S44" t="n">
-        <v>4688.504965942682</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T44" t="n">
-        <v>4688.504965942682</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U44" t="n">
-        <v>4429.282663259699</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V44" t="n">
-        <v>4066.665713193525</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W44" t="n">
-        <v>3661.810258604559</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X44" t="n">
-        <v>3354.995000885117</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y44" t="n">
-        <v>2946.70887718477</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>944.2661363957848</v>
+        <v>962.5053054384693</v>
       </c>
       <c r="C46" t="n">
-        <v>771.7044248790097</v>
+        <v>789.9435939216943</v>
       </c>
       <c r="D46" t="n">
-        <v>605.8264320805324</v>
+        <v>624.065601123217</v>
       </c>
       <c r="E46" t="n">
-        <v>436.0684283312697</v>
+        <v>454.3075973739543</v>
       </c>
       <c r="F46" t="n">
-        <v>259.361374293026</v>
+        <v>277.6005433357104</v>
       </c>
       <c r="G46" t="n">
-        <v>93.77009931885365</v>
+        <v>112.0092683615381</v>
       </c>
       <c r="H46" t="n">
-        <v>93.77009931885365</v>
+        <v>112.0092683615381</v>
       </c>
       <c r="I46" t="n">
         <v>93.77009931885365</v>
@@ -7833,25 +7833,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2692.190540178969</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.311093757424</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U46" t="n">
-        <v>2167.878093010529</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V46" t="n">
-        <v>1880.92258488096</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W46" t="n">
-        <v>1608.896180467251</v>
+        <v>1627.135349509936</v>
       </c>
       <c r="X46" t="n">
-        <v>1363.504425800664</v>
+        <v>1381.743594843348</v>
       </c>
       <c r="Y46" t="n">
-        <v>1136.084755114772</v>
+        <v>1154.323924157457</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -8060,7 +8060,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8148,7 +8148,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956003</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8157,7 +8157,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>566.3319231075541</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="P8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M8" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="N8" t="n">
-        <v>667.5152066078567</v>
-      </c>
-      <c r="O8" t="n">
-        <v>640.5448952297625</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8537,19 +8537,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831379</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P11" t="n">
-        <v>259.3095102562265</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8771,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8932,7 +8932,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>446.0407874304756</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9008,10 +9008,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9172,22 +9172,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,22 +9245,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,10 +9883,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>305.8360165328636</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,22 +10114,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>548.405358162976</v>
       </c>
       <c r="P29" t="n">
-        <v>69.04441372935617</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,13 +10351,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>288.7351832965059</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -10366,13 +10366,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>508.6956131767483</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>705.1630299520855</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -11071,19 +11071,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831379</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0.0365653694989021</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>259.3095102562265</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23260,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>411.8858435779281</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23424,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>103.1553467313936</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>52.89506301241612</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>72.44040884377318</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>111.4236523045823</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>4.277894049991801</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>84.63380825304883</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>3.146865729424633</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>63.43016517136702</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>65.48800580459475</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25125,10 +25125,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>52.94985625022238</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>44.28436272291289</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>69.71657238081424</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.20415515853266</v>
       </c>
       <c r="H40" t="n">
-        <v>120.4463752142708</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>411.8858435779281</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>110.7913121651032</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>120.4463752142716</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>37.38363054573546</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>411.8858435779283</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>111.203933644235</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081383</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>606993.0910873044</v>
+        <v>606993.0910873045</v>
       </c>
     </row>
     <row r="7">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>606993.0910873044</v>
+        <v>606993.0910873043</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>606993.0910873044</v>
+        <v>606993.0910873043</v>
       </c>
     </row>
   </sheetData>
@@ -26325,22 +26325,22 @@
         <v>345850.0296919845</v>
       </c>
       <c r="F2" t="n">
-        <v>345850.0296919845</v>
+        <v>345850.0296919844</v>
       </c>
       <c r="G2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961465</v>
       </c>
       <c r="H2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961465</v>
       </c>
       <c r="I2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961465</v>
       </c>
       <c r="J2" t="n">
         <v>368800.3088961465</v>
       </c>
       <c r="K2" t="n">
-        <v>368800.3088961465</v>
+        <v>368800.3088961466</v>
       </c>
       <c r="L2" t="n">
         <v>368800.3088961466</v>
@@ -26352,10 +26352,10 @@
         <v>368800.3088961466</v>
       </c>
       <c r="O2" t="n">
-        <v>345850.0296919845</v>
+        <v>345850.0296919846</v>
       </c>
       <c r="P2" t="n">
-        <v>345850.0296919846</v>
+        <v>345850.0296919844</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150665.7535717478</v>
+        <v>150665.7535717479</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>173889.5352664431</v>
       </c>
       <c r="D4" t="n">
-        <v>173889.535266443</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>88974.20123403626</v>
+        <v>88974.20123403627</v>
       </c>
       <c r="F4" t="n">
         <v>88974.20123403627</v>
@@ -26444,10 +26444,10 @@
         <v>94878.44464875289</v>
       </c>
       <c r="K4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="L4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="M4" t="n">
         <v>94878.44464875289</v>
@@ -26459,7 +26459,7 @@
         <v>88974.20123403627</v>
       </c>
       <c r="P4" t="n">
-        <v>88974.20123403626</v>
+        <v>88974.20123403627</v>
       </c>
     </row>
     <row r="5">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-96498.63448895961</v>
+        <v>-96498.63448895964</v>
       </c>
       <c r="C6" t="n">
         <v>127201.0640950852</v>
@@ -26530,40 +26530,40 @@
         <v>127201.0640950853</v>
       </c>
       <c r="E6" t="n">
-        <v>34944.79940387167</v>
+        <v>34839.60978161698</v>
       </c>
       <c r="F6" t="n">
-        <v>185610.5529756195</v>
+        <v>185505.3633533648</v>
       </c>
       <c r="G6" t="n">
-        <v>167113.8164689933</v>
+        <v>167090.5921296106</v>
       </c>
       <c r="H6" t="n">
-        <v>196203.6256416013</v>
+        <v>196180.4013022185</v>
       </c>
       <c r="I6" t="n">
-        <v>196203.6256416013</v>
+        <v>196180.4013022185</v>
       </c>
       <c r="J6" t="n">
-        <v>21552.276923895</v>
+        <v>21529.05258451236</v>
       </c>
       <c r="K6" t="n">
-        <v>196203.6256416012</v>
+        <v>196180.4013022185</v>
       </c>
       <c r="L6" t="n">
-        <v>196203.6256416012</v>
+        <v>196180.4013022185</v>
       </c>
       <c r="M6" t="n">
-        <v>70452.53730591055</v>
+        <v>70429.31296652788</v>
       </c>
       <c r="N6" t="n">
-        <v>196203.6256416012</v>
+        <v>196180.4013022185</v>
       </c>
       <c r="O6" t="n">
-        <v>185610.5529756194</v>
+        <v>185505.3633533649</v>
       </c>
       <c r="P6" t="n">
-        <v>185610.5529756196</v>
+        <v>185505.3633533648</v>
       </c>
     </row>
   </sheetData>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>298.2998601569337</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
+      <c r="F2" t="n">
         <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>187.7088048787651</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>34.67467827192613</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27599,10 +27599,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>117.7661826744375</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>127.5668610920513</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27624,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>183.2595847868383</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>33.58904338006388</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27824,10 +27824,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>69.71657238081409</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>253.8775775763891</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>52.65760510107471</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27915,13 +27915,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>161.9268490649754</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34701,19 +34701,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -34780,7 +34780,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34868,16 +34868,16 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956003</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>566.3319231075541</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35102,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="P8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M8" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="N8" t="n">
-        <v>667.5152066078567</v>
-      </c>
-      <c r="O8" t="n">
-        <v>640.5448952297625</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35257,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831382</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P11" t="n">
-        <v>259.3095102562265</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35506,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35652,7 +35652,7 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35667,7 +35667,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>446.0407874304756</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,10 +35728,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>661.3192390158824</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36603,10 +36603,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>305.8360165328636</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36691,13 +36691,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831382</v>
+        <v>548.405358162976</v>
       </c>
       <c r="P29" t="n">
-        <v>69.04441372935617</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>288.7351832965059</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -37086,13 +37086,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>661.3192390158824</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>508.6956131767483</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>170.862691669754</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37715,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>705.1630299520855</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37791,19 +37791,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831377</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0.0365653694989021</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>259.3095102562265</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
